--- a/biorefineries/cane/results/life_cycle.xlsx
+++ b/biorefineries/cane/results/life_cycle.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cortespea\code\biosteam\Bioindustrial-Park\biorefineries\cane\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D1DCE3-C2E2-4B52-A86E-CA5F96B14540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A6F448-1FAC-4FD9-BE79-274D25EDD297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="0" windowWidth="10524" windowHeight="12318" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10290" yWindow="0" windowWidth="10524" windowHeight="12318" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
     <sheet name="Displacement allocation" sheetId="2" r:id="rId2"/>
     <sheet name="Energy allocation factors" sheetId="3" r:id="rId3"/>
     <sheet name="Economic allocation factors" sheetId="4" r:id="rId4"/>
-    <sheet name="GWP biodiesel" sheetId="6" r:id="rId5"/>
+    <sheet name="Displacement allocation factors" sheetId="5" r:id="rId5"/>
+    <sheet name="GWP biodiesel" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>DC inventory [kg/yr]</t>
   </si>
@@ -93,9 +94,6 @@
     <t>Pure glycerine</t>
   </si>
   <si>
-    <t>Outputs</t>
-  </si>
-  <si>
     <t>RNG</t>
   </si>
   <si>
@@ -132,9 +130,6 @@
     <t>Total inputs</t>
   </si>
   <si>
-    <t>Outputs displaced</t>
-  </si>
-  <si>
     <t>Electricity</t>
   </si>
   <si>
@@ -159,12 +154,6 @@
     <t>ICFR energy allocation factors</t>
   </si>
   <si>
-    <t>Cooling water</t>
-  </si>
-  <si>
-    <t>Low pressure steam</t>
-  </si>
-  <si>
     <t>DC revenue allocation factors</t>
   </si>
   <si>
@@ -172,6 +161,15 @@
   </si>
   <si>
     <t>ICFR revenue allocation factors</t>
+  </si>
+  <si>
+    <t>DC displacement allocation factors</t>
+  </si>
+  <si>
+    <t>ICF displacement allocation factors</t>
+  </si>
+  <si>
+    <t>ICFR displacement allocation factors</t>
   </si>
   <si>
     <t>DC [kg∙CO2e∙kg-1]</t>
@@ -245,13 +243,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,11 +557,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.62890625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="1" t="s">
@@ -579,13 +587,13 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>1950</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="3">
+        <v>1520</v>
+      </c>
+      <c r="D2" s="3">
         <v>284000</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>284000</v>
       </c>
     </row>
@@ -594,13 +602,13 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>343000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>343000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>343000</v>
       </c>
     </row>
@@ -609,14 +617,14 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>1710</v>
-      </c>
-      <c r="D4">
-        <v>1710</v>
-      </c>
-      <c r="E4">
-        <v>1710</v>
+      <c r="C4" s="3">
+        <v>1540</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1540</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1540</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -624,14 +632,14 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>8470</v>
-      </c>
-      <c r="D5">
-        <v>14000</v>
-      </c>
-      <c r="E5">
-        <v>14200</v>
+      <c r="C5" s="3">
+        <v>13400</v>
+      </c>
+      <c r="D5" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E5" s="3">
+        <v>16500</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -639,14 +647,14 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>191</v>
-      </c>
-      <c r="D6">
-        <v>191</v>
-      </c>
-      <c r="E6">
-        <v>191</v>
+      <c r="C6" s="3">
+        <v>172</v>
+      </c>
+      <c r="D6" s="3">
+        <v>172</v>
+      </c>
+      <c r="E6" s="3">
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -654,14 +662,14 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>1350</v>
-      </c>
-      <c r="D7">
-        <v>2230</v>
-      </c>
-      <c r="E7">
-        <v>2250</v>
+      <c r="C7" s="3">
+        <v>2140</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2620</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2630</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -669,14 +677,14 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>4800</v>
-      </c>
-      <c r="D8">
-        <v>4800</v>
-      </c>
-      <c r="E8">
-        <v>4800</v>
+      <c r="C8" s="3">
+        <v>4320</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4320</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4320</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -684,13 +692,13 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
         <v>39900000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>39900000</v>
       </c>
     </row>
@@ -699,14 +707,14 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>3540</v>
-      </c>
-      <c r="D10">
-        <v>5860</v>
-      </c>
-      <c r="E10">
-        <v>5920</v>
+      <c r="C10" s="3">
+        <v>5610</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6870</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6920</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -714,13 +722,13 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>686000</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>686000</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>686000</v>
       </c>
     </row>
@@ -729,14 +737,14 @@
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
-        <v>154000</v>
-      </c>
-      <c r="D12">
-        <v>154000</v>
-      </c>
-      <c r="E12">
-        <v>154000</v>
+      <c r="C12" s="3">
+        <v>138000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>138000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -744,13 +752,13 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -759,13 +767,13 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>1600000000</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>1600000000</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>1600000000</v>
       </c>
     </row>
@@ -774,127 +782,95 @@
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
-        <v>3140000</v>
-      </c>
-      <c r="D15">
-        <v>5020000</v>
-      </c>
-      <c r="E15">
-        <v>3590000</v>
+      <c r="C15" s="3">
+        <v>2300000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3440000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2460000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C16" s="3">
+        <v>21800000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>21200000</v>
+      </c>
+      <c r="E16" s="3">
+        <v>15200000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>29700000</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>11400000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8140000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>28800000</v>
-      </c>
-      <c r="E18">
-        <v>20600000</v>
+        <v>22</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5670000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8480000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6060000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>18800000</v>
-      </c>
-      <c r="E19">
-        <v>13400000</v>
+        <v>23</v>
+      </c>
+      <c r="C19" s="3">
+        <v>822000000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>275000000</v>
+      </c>
+      <c r="E19" s="3">
+        <v>332000000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20">
-        <v>7730000</v>
-      </c>
-      <c r="D20">
-        <v>12400000</v>
-      </c>
-      <c r="E20">
-        <v>8840000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1" t="s">
+      <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21">
-        <v>860000000</v>
-      </c>
-      <c r="D21">
-        <v>574000000</v>
-      </c>
-      <c r="E21">
-        <v>667000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="B20" s="1"/>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -902,26 +878,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D23" sqref="D23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -935,13 +911,13 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="D2">
-        <v>3.43E-5</v>
+        <v>3.65E-5</v>
       </c>
       <c r="E2">
-        <v>3.13E-3</v>
+        <v>4.5700000000000003E-3</v>
       </c>
       <c r="F2">
-        <v>4.3800000000000002E-3</v>
+        <v>6.3899999999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -953,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.15E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="E3">
-        <v>7.1999999999999998E-3</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="F3">
-        <v>1.01E-2</v>
+        <v>1.47E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -971,13 +947,13 @@
         <v>1.96</v>
       </c>
       <c r="D4">
-        <v>1.12E-4</v>
+        <v>1.3799999999999999E-4</v>
       </c>
       <c r="E4">
-        <v>7.0199999999999999E-5</v>
+        <v>9.2200000000000005E-5</v>
       </c>
       <c r="F4">
-        <v>9.8300000000000004E-5</v>
+        <v>1.2899999999999999E-4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -989,13 +965,13 @@
         <v>0.311</v>
       </c>
       <c r="D5">
-        <v>8.8599999999999999E-5</v>
+        <v>1.9100000000000001E-4</v>
       </c>
       <c r="E5">
-        <v>9.1600000000000004E-5</v>
+        <v>1.5699999999999999E-4</v>
       </c>
       <c r="F5">
-        <v>1.2899999999999999E-4</v>
+        <v>2.2000000000000001E-4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1007,13 +983,13 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="D6">
-        <v>1.29E-5</v>
+        <v>1.59E-5</v>
       </c>
       <c r="E6">
-        <v>8.0800000000000006E-6</v>
+        <v>1.06E-5</v>
       </c>
       <c r="F6">
-        <v>1.13E-5</v>
+        <v>1.4800000000000001E-5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1025,13 +1001,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="D7">
-        <v>2.2200000000000001E-5</v>
+        <v>4.7899999999999999E-5</v>
       </c>
       <c r="E7">
-        <v>2.2900000000000001E-5</v>
+        <v>3.9199999999999997E-5</v>
       </c>
       <c r="F7">
-        <v>3.2400000000000001E-5</v>
+        <v>5.52E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1043,13 +1019,13 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="D8">
-        <v>1.1900000000000001E-4</v>
+        <v>1.45E-4</v>
       </c>
       <c r="E8">
-        <v>7.4099999999999999E-5</v>
+        <v>9.7200000000000004E-5</v>
       </c>
       <c r="F8">
-        <v>1.0399999999999999E-4</v>
+        <v>1.36E-4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1058,16 +1034,16 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.40400000000000003</v>
+        <v>8.0700000000000008E-3</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.33800000000000002</v>
+        <v>9.8700000000000003E-3</v>
       </c>
       <c r="F9">
-        <v>0.47299999999999998</v>
+        <v>1.38E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1079,13 +1055,13 @@
         <v>5.9</v>
       </c>
       <c r="D10">
-        <v>7.0399999999999998E-4</v>
+        <v>1.5200000000000001E-3</v>
       </c>
       <c r="E10">
-        <v>7.2800000000000002E-4</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F10">
-        <v>1.0300000000000001E-3</v>
+        <v>1.75E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1097,13 +1073,13 @@
         <v>5.3499999999999999E-2</v>
       </c>
       <c r="D11">
-        <v>1.23E-3</v>
+        <v>1.6800000000000001E-3</v>
       </c>
       <c r="E11">
-        <v>7.7099999999999998E-4</v>
+        <v>1.1299999999999999E-3</v>
       </c>
       <c r="F11">
-        <v>1.08E-3</v>
+        <v>1.57E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1115,13 +1091,13 @@
         <v>0.45</v>
       </c>
       <c r="D12">
-        <v>2.33E-3</v>
+        <v>2.8500000000000001E-3</v>
       </c>
       <c r="E12">
-        <v>1.4499999999999999E-3</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F12">
-        <v>2.0300000000000001E-3</v>
+        <v>2.6700000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1151,13 +1127,13 @@
         <v>3.5200000000000002E-2</v>
       </c>
       <c r="D14">
-        <v>1.9</v>
+        <v>2.59</v>
       </c>
       <c r="E14">
-        <v>1.19</v>
+        <v>1.73</v>
       </c>
       <c r="F14">
-        <v>1.66</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1166,141 +1142,138 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>1.67</v>
+        <v>3.33</v>
       </c>
       <c r="D15">
-        <v>0.17599999999999999</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="E15">
-        <v>0.17599999999999999</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="F15">
-        <v>0.17599999999999999</v>
+        <v>0.35199999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1"/>
       <c r="D16">
-        <v>2.09</v>
+        <v>2.96</v>
       </c>
       <c r="E16">
-        <v>1.71</v>
+        <v>2.11</v>
       </c>
       <c r="F16">
-        <v>2.33</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="D19">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="E19">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="F19">
+        <v>7.4899999999999994E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>3.13</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
       <c r="D20">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>0.28799999999999998</v>
-      </c>
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="D21">
-        <v>7.4899999999999994E-2</v>
+        <v>13.6</v>
       </c>
       <c r="E21">
-        <v>7.4899999999999994E-2</v>
+        <v>3.1</v>
       </c>
       <c r="F21">
-        <v>7.4899999999999994E-2</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>4.34</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>7.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1309,54 +1282,18 @@
       </c>
       <c r="B23" s="1"/>
       <c r="D23">
-        <v>10.5</v>
+        <v>-10.7</v>
       </c>
       <c r="E23">
-        <v>4.42</v>
+        <v>-0.99399999999999999</v>
       </c>
       <c r="F23">
-        <v>7.13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="D25">
-        <v>-8.4</v>
-      </c>
-      <c r="E25">
-        <v>-2.71</v>
-      </c>
-      <c r="F25">
-        <v>-4.8</v>
+        <v>-2.39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1364,119 +1301,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="18.89453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>0.25900000000000001</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.40700000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="C3">
-        <v>0.27</v>
+        <v>4.53E-2</v>
       </c>
       <c r="D3">
-        <v>0.20399999999999999</v>
+        <v>3.49E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="C4">
-        <v>0.17499999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D4">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="C6">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="D6">
-        <v>2.8899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="C7">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="D7">
-        <v>0.63400000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -1486,105 +1372,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>0.29299999999999998</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.57600000000000007</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.45199999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.18E-2</v>
       </c>
       <c r="C3">
-        <v>0.29799999999999999</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D3">
-        <v>0.22900000000000001</v>
+        <v>2.1899999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.746</v>
       </c>
       <c r="C4">
-        <v>0.19400000000000001</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="D4">
-        <v>0.14899999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="C5">
-        <v>2.3900000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>1.83E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="C6">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="D6">
-        <v>0.60399999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1593,66 +1439,181 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>0.52446258503401377</v>
+        <v>-3.61</v>
       </c>
       <c r="C2">
-        <v>0.74564897959183696</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.76275102040816345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>0.50051972789115651</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.061466666666667</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.1743401360544221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>-8.3800000000000008</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>-2.7021224489795923</v>
+        <v>-0.47099999999999997</v>
       </c>
       <c r="D4">
-        <v>-4.78857142857143</v>
+        <v>-0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>2.53E-2</v>
+      </c>
+      <c r="C5">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.6599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>4.58</v>
+      </c>
+      <c r="C6">
+        <v>1.44</v>
+      </c>
+      <c r="D6">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="15.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="C2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2">
+        <v>1.1240000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="C3">
+        <v>1.47</v>
+      </c>
+      <c r="D3">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>-10.7</v>
+      </c>
+      <c r="C4">
+        <v>-0.996</v>
+      </c>
+      <c r="D4">
+        <v>-2.39</v>
       </c>
     </row>
   </sheetData>
